--- a/fileOutput.xlsx
+++ b/fileOutput.xlsx
@@ -384,7 +384,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Fecha de venta</t>
+          <t>fechaEntrega</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -424,7 +424,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10 de marzo de 2020 12:28 hs.</t>
+          <t>10/03/2020</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -462,7 +462,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>28 de marzo de 2019 23:20 hs.</t>
+          <t>28/03/2019</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>10 de junio de 2019 17:27 hs.</t>
+          <t>10/06/2019</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5 de septiembre de 2019 09:09 hs.</t>
+          <t>05/09/2019</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>17 de julio de 2019 23:25 hs.</t>
+          <t>17/07/2019</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -614,7 +614,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6 de enero de 2020 13:50 hs.</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23 de septiembre de 2019 16:55 hs.</t>
+          <t>23/09/2019</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8 de marzo de 2020 17:04 hs.</t>
+          <t>08/03/2020</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23 de agosto de 2019 22:35 hs.</t>
+          <t>23/08/2019</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27 de junio de 2019 14:36 hs.</t>
+          <t>27/06/2019</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10 de enero de 2019 11:02 hs.</t>
+          <t>10/01/2019</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>24 de marzo de 2019 00:57 hs.</t>
+          <t>24/03/2019</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4 de junio de 2019 16:53 hs.</t>
+          <t>04/06/2019</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15 de enero de 2019 22:10 hs.</t>
+          <t>15/01/2019</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7 de noviembre de 2019 12:22 hs.</t>
+          <t>07/11/2019</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>25 de septiembre de 2019 15:52 hs.</t>
+          <t>25/09/2019</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5 de agosto de 2019 10:26 hs.</t>
+          <t>05/08/2019</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>23 de agosto de 2019 19:22 hs.</t>
+          <t>23/08/2019</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>23 de septiembre de 2019 13:40 hs.</t>
+          <t>23/09/2019</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14 de agosto de 2019 16:32 hs.</t>
+          <t>14/08/2019</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>28 de agosto de 2019 15:07 hs.</t>
+          <t>28/08/2019</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>15 de enero de 2019 22:25 hs.</t>
+          <t>15/01/2019</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13 de febrero de 2020 23:24 hs.</t>
+          <t>13/02/2020</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>31 de enero de 2020 19:02 hs.</t>
+          <t>31/01/2020</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>26 de septiembre de 2019 13:18 hs.</t>
+          <t>26/09/2019</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>23 de agosto de 2019 11:07 hs.</t>
+          <t>23/08/2019</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>24 de junio de 2019 10:43 hs.</t>
+          <t>24/06/2019</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>19 de febrero de 2019 17:01 hs.</t>
+          <t>19/02/2019</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>25 de septiembre de 2019 15:54 hs.</t>
+          <t>25/09/2019</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>23 de septiembre de 2019 13:23 hs.</t>
+          <t>23/09/2019</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>15 de enero de 2019 22:27 hs.</t>
+          <t>15/01/2019</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>22 de noviembre de 2019 14:19 hs.</t>
+          <t>22/11/2019</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12 de noviembre de 2019 16:09 hs.</t>
+          <t>12/11/2019</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5 de septiembre de 2019 08:32 hs.</t>
+          <t>05/09/2019</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>31 de agosto de 2019 20:27 hs.</t>
+          <t>31/08/2019</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>22 de septiembre de 2018 11:47 hs.</t>
+          <t>22/09/2018</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11 de noviembre de 2019 19:46 hs.</t>
+          <t>11/11/2019</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>24 de junio de 2019 17:27 hs.</t>
+          <t>24/06/2019</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11 de septiembre de 2019 19:42 hs.</t>
+          <t>11/09/2019</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1902,7 +1902,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>14 de septiembre de 2019 16:25 hs.</t>
+          <t>14/09/2019</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5 de septiembre de 2019 08:43 hs.</t>
+          <t>05/09/2019</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10 de septiembre de 2019 23:25 hs.</t>
+          <t>10/09/2019</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>15 de septiembre de 2018 17:19 hs.</t>
+          <t>15/09/2018</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10 de febrero de 2019 21:48 hs.</t>
+          <t>10/02/2019</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10 de febrero de 2019 23:31 hs.</t>
+          <t>10/02/2019</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>23 de agosto de 2019 22:38 hs.</t>
+          <t>23/08/2019</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>30 de mayo de 2019 12:17 hs.</t>
+          <t>30/05/2019</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>23 de agosto de 2019 13:57 hs.</t>
+          <t>23/08/2019</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>30 de mayo de 2019 12:15 hs.</t>
+          <t>30/05/2019</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5 de septiembre de 2019 09:05 hs.</t>
+          <t>05/09/2019</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>9 de febrero de 2020 23:48 hs.</t>
+          <t>09/02/2020</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>21 de enero de 2019 12:12 hs.</t>
+          <t>21/01/2019</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>13 de agosto de 2019 13:34 hs.</t>
+          <t>13/08/2019</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>29 de febrero de 2020 10:51 hs.</t>
+          <t>29/02/2020</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>30 de julio de 2019 09:04 hs.</t>
+          <t>30/07/2019</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>23 de septiembre de 2019 13:26 hs.</t>
+          <t>23/09/2019</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>13 de marzo de 2019 14:41 hs.</t>
+          <t>13/03/2019</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2586,7 +2586,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5 de septiembre de 2019 08:47 hs.</t>
+          <t>05/09/2019</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>15 de enero de 2019 22:13 hs.</t>
+          <t>15/01/2019</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4 de marzo de 2020 22:14 hs.</t>
+          <t>04/03/2020</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2700,7 +2700,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>9 de abril de 2019 15:40 hs.</t>
+          <t>09/04/2019</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11 de septiembre de 2019 19:35 hs.</t>
+          <t>11/09/2019</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>30 de mayo de 2019 12:14 hs.</t>
+          <t>30/05/2019</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>18 de agosto de 2019 02:58 hs.</t>
+          <t>18/08/2019</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11 de septiembre de 2019 19:38 hs.</t>
+          <t>11/09/2019</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>14 de diciembre de 2018 15:07 hs.</t>
+          <t>14/12/2018</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>28 de abril de 2019 16:45 hs.</t>
+          <t>28/04/2019</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>24 de junio de 2019 10:46 hs.</t>
+          <t>24/06/2019</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>21 de agosto de 2019 14:48 hs.</t>
+          <t>21/08/2019</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3042,7 +3042,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>18 de diciembre de 2019 18:31 hs.</t>
+          <t>18/12/2019</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>6 de enero de 2020 16:50 hs.</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2 de diciembre de 2019 14:23 hs.</t>
+          <t>02/12/2019</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>26 de junio de 2019 12:04 hs.</t>
+          <t>26/06/2019</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>14 de enero de 2020 16:18 hs.</t>
+          <t>14/01/2020</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>9 de febrero de 2020 23:45 hs.</t>
+          <t>09/02/2020</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1 de octubre de 2018 14:06 hs.</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>12 de septiembre de 2019 12:59 hs.</t>
+          <t>12/09/2019</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4 de abril de 2019 12:07 hs.</t>
+          <t>04/04/2019</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>30 de diciembre de 2018 15:52 hs.</t>
+          <t>30/12/2018</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>25 de septiembre de 2019 15:42 hs.</t>
+          <t>25/09/2019</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>23 de septiembre de 2019 21:20 hs.</t>
+          <t>23/09/2019</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3498,7 +3498,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>7 de febrero de 2020 20:31 hs.</t>
+          <t>07/02/2020</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>26 de diciembre de 2019 10:37 hs.</t>
+          <t>26/12/2019</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>003g</t>
+          <t>003G</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>25 de septiembre de 2019 15:47 hs.</t>
+          <t>25/09/2019</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>21 de agosto de 2019 14:52 hs.</t>
+          <t>21/08/2019</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>7 de noviembre de 2019 09:58 hs.</t>
+          <t>07/11/2019</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>6 de enero de 2020 13:53 hs.</t>
+          <t>06/01/2020</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>12 de noviembre de 2019 16:09 hs.</t>
+          <t>12/11/2019</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3764,7 +3764,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>5 de marzo de 2020 12:46 hs.</t>
+          <t>05/03/2020</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>11 de septiembre de 2019 20:26 hs.</t>
+          <t>11/09/2019</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>12 de noviembre de 2019 16:09 hs.</t>
+          <t>12/11/2019</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>10 de junio de 2019 23:29 hs.</t>
+          <t>10/06/2019</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>8 de julio de 2019 01:56 hs.</t>
+          <t>08/07/2019</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3954,7 +3954,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>6 de octubre de 2019 10:23 hs.</t>
+          <t>06/10/2019</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>13 de agosto de 2019 19:37 hs.</t>
+          <t>13/08/2019</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>29 de mayo de 2019 20:55 hs.</t>
+          <t>29/05/2019</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>10 de abril de 2019 10:15 hs.</t>
+          <t>10/04/2019</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>21 de junio de 2019 19:02 hs.</t>
+          <t>21/06/2019</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>10 de febrero de 2019 23:36 hs.</t>
+          <t>10/02/2019</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>9 de noviembre de 2019 10:47 hs.</t>
+          <t>09/11/2019</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>27 de agosto de 2019 18:38 hs.</t>
+          <t>27/08/2019</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>9 de noviembre de 2019 08:50 hs.</t>
+          <t>09/11/2019</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>30 de mayo de 2019 12:13 hs.</t>
+          <t>30/05/2019</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>26 de diciembre de 2019 10:37 hs.</t>
+          <t>26/12/2019</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>22 de marzo de 2019 10:02 hs.</t>
+          <t>22/03/2019</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>23 de agosto de 2019 22:30 hs.</t>
+          <t>23/08/2019</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>30 de mayo de 2019 12:18 hs.</t>
+          <t>30/05/2019</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>13 de septiembre de 2019 15:33 hs.</t>
+          <t>13/09/2019</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4520,7 +4520,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>9 de marzo de 2020 13:20 hs.</t>
+          <t>09/03/2020</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4558,7 +4558,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>8 de febrero de 2020 08:46 hs.</t>
+          <t>08/02/2020</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>21 de noviembre de 2018 09:16 hs.</t>
+          <t>21/11/2018</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>7 de noviembre de 2019 12:07 hs.</t>
+          <t>07/11/2019</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>25 de septiembre de 2019 15:50 hs.</t>
+          <t>25/09/2019</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>9 de noviembre de 2019 10:28 hs.</t>
+          <t>09/11/2019</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>19 de febrero de 2019 07:21 hs.</t>
+          <t>19/02/2019</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>6 de abril de 2019 15:15 hs.</t>
+          <t>06/04/2019</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4824,7 +4824,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>10 de junio de 2019 08:49 hs.</t>
+          <t>10/06/2019</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4862,7 +4862,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>12 de diciembre de 2019 14:27 hs.</t>
+          <t>12/12/2019</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>8 de marzo de 2020 11:42 hs.</t>
+          <t>08/03/2020</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>10 de enero de 2020 11:22 hs.</t>
+          <t>10/01/2020</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>10 de febrero de 2019 23:25 hs.</t>
+          <t>10/02/2019</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>30 de enero de 2019 17:30 hs.</t>
+          <t>30/01/2019</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>2 de diciembre de 2019 23:19 hs.</t>
+          <t>02/12/2019</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>17 de agosto de 2019 11:56 hs.</t>
+          <t>17/08/2019</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>26 de diciembre de 2019 10:37 hs.</t>
+          <t>26/12/2019</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>9 de febrero de 2020 23:43 hs.</t>
+          <t>09/02/2020</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>4 de febrero de 2019 22:35 hs.</t>
+          <t>04/02/2019</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>2 de septiembre de 2019 08:46 hs.</t>
+          <t>02/09/2019</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5280,7 +5280,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>20 de septiembre de 2019 18:17 hs.</t>
+          <t>20/09/2019</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5318,7 +5318,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>5 de septiembre de 2019 08:40 hs.</t>
+          <t>05/09/2019</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>3 de junio de 2019 12:59 hs.</t>
+          <t>03/06/2019</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>1 de octubre de 2019 17:53 hs.</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5432,7 +5432,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>25 de septiembre de 2019 15:40 hs.</t>
+          <t>25/09/2019</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>10 de julio de 2019 11:14 hs.</t>
+          <t>10/07/2019</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>29 de agosto de 2019 16:17 hs.</t>
+          <t>29/08/2019</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>12 de enero de 2019 22:23 hs.</t>
+          <t>12/01/2019</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>8 de marzo de 2019 12:06 hs.</t>
+          <t>08/03/2019</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5622,7 +5622,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>9 de marzo de 2020 13:18 hs.</t>
+          <t>09/03/2020</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>25 de diciembre de 2018 09:33 hs.</t>
+          <t>25/12/2018</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5698,7 +5698,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>29 de enero de 2020 14:44 hs.</t>
+          <t>29/01/2020</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5736,7 +5736,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>1 de octubre de 2018 14:08 hs.</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5774,7 +5774,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>17 de diciembre de 2018 12:55 hs.</t>
+          <t>17/12/2018</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5812,7 +5812,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>18 de julio de 2019 10:19 hs.</t>
+          <t>18/07/2019</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5850,7 +5850,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>10 de diciembre de 2019 19:35 hs.</t>
+          <t>10/12/2019</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>21 de enero de 2020 11:31 hs.</t>
+          <t>21/01/2020</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5926,7 +5926,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>13 de noviembre de 2019 08:07 hs.</t>
+          <t>13/11/2019</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -5964,7 +5964,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>14 de septiembre de 2019 20:35 hs.</t>
+          <t>14/09/2019</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -6002,7 +6002,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>1 de septiembre de 2019 23:56 hs.</t>
+          <t>01/09/2019</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>27 de diciembre de 2018 15:14 hs.</t>
+          <t>27/12/2018</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>23 de septiembre de 2019 13:32 hs.</t>
+          <t>23/09/2019</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>17 de enero de 2019 10:49 hs.</t>
+          <t>17/01/2019</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>5 de noviembre de 2018 13:50 hs.</t>
+          <t>05/11/2018</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>5 de septiembre de 2019 09:07 hs.</t>
+          <t>05/09/2019</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>6 de noviembre de 2019 18:04 hs.</t>
+          <t>06/11/2019</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -6268,7 +6268,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>12 de diciembre de 2019 14:28 hs.</t>
+          <t>12/12/2019</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -6306,7 +6306,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>26 de diciembre de 2019 20:10 hs.</t>
+          <t>26/12/2019</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -6344,7 +6344,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>12 de diciembre de 2019 14:26 hs.</t>
+          <t>12/12/2019</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>18 de enero de 2019 20:01 hs.</t>
+          <t>18/01/2019</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
